--- a/Examples/AHP Ratings Cars/carModel_Ratings_Criteria_initialresults.xlsx
+++ b/Examples/AHP Ratings Cars/carModel_Ratings_Criteria_initialresults.xlsx
@@ -311,7 +311,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="13134975" cy="2790825"/>
+    <ext cx="12963525" cy="2790825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
